--- a/找工作情况.xlsx
+++ b/找工作情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>待完成测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待笔试</t>
+  </si>
+  <si>
+    <t>等待笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,9 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -525,7 +543,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
@@ -612,6 +630,20 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42631</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/找工作情况.xlsx
+++ b/找工作情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>等待笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,6 +657,17 @@
         <v>42631</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/找工作情况.xlsx
+++ b/找工作情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,26 @@
   </si>
   <si>
     <t>筛选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -505,7 +525,7 @@
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +547,14 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -547,7 +573,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -564,7 +590,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -579,7 +605,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -598,7 +624,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -613,7 +639,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -628,7 +654,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -643,7 +669,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -657,7 +683,7 @@
         <v>42631</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -666,6 +692,17 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/找工作情况.xlsx
+++ b/找工作情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月10日 15：00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +515,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,7 +587,9 @@
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>

--- a/找工作情况.xlsx
+++ b/找工作情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,22 @@
   </si>
   <si>
     <t>9月10日 15：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月5日 19 : 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -711,6 +727,20 @@
         <v>37</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/找工作情况.xlsx
+++ b/找工作情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,21 @@
   <si>
     <t>9月5日 19 : 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信IT研发中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://special.zhaopin.com/campus/2016/bj/zgdx090365/careers.html</t>
   </si>
 </sst>
 </file>
@@ -528,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -539,13 +554,14 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,25 +572,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -584,16 +603,17 @@
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -603,16 +623,17 @@
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -626,8 +647,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -637,16 +659,17 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -660,8 +683,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -675,8 +699,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -690,8 +715,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -701,11 +727,12 @@
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="2">
         <v>42631</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -715,8 +742,9 @@
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -726,8 +754,9 @@
       <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -737,8 +766,23 @@
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/找工作情况.xlsx
+++ b/找工作情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9月10日 15：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>京东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,22 +200,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投递未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投递网址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://special.zhaopin.com/campus/2016/bj/zgdx090365/careers.html</t>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +287,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -255,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,9 +329,12 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -281,7 +350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,10 +615,10 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
@@ -561,7 +630,7 @@
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -593,7 +662,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -613,7 +682,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -625,7 +694,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -633,7 +702,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -649,7 +718,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -669,7 +738,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -685,7 +754,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -701,7 +770,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -717,7 +786,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -732,7 +801,7 @@
         <v>42631</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -744,7 +813,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -756,34 +825,32 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
